--- a/sector_breakdown/Transport/Light duty road/new_registration_rate.xlsx
+++ b/sector_breakdown/Transport/Light duty road/new_registration_rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s203679_dtu_dk/Documents/Dokumenter/DTU_Man/h2_system_dynamics/sector_breakdown/Transport/Light duty road/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA4CFB6-97A6-4826-B6D6-DD8C751EA197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{4FA4CFB6-97A6-4826-B6D6-DD8C751EA197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3303E112-A01B-4B42-8ADC-3E7309707625}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="110">
   <si>
     <t>Passenger cars by age [road_eqs_carage__custom_12407078]</t>
   </si>
@@ -365,6 +365,12 @@
   <si>
     <t>Total new registrations</t>
   </si>
+  <si>
+    <t>Norway new registrations</t>
+  </si>
+  <si>
+    <t>Norway scrapped</t>
+  </si>
 </sst>
 </file>
 
@@ -530,6 +536,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -537,12 +549,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,22 +962,22 @@
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1635,13 +1641,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U72"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1669,12 +1675,12 @@
     <col min="21" max="21" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -1682,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -1690,8 +1696,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1715,73 +1721,73 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="18" t="s">
+      <c r="I9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="18" t="s">
+      <c r="K9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="18" t="s">
+      <c r="M9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" s="18" t="s">
+      <c r="O9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9" s="18" t="s">
+      <c r="Q9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9" s="18" t="s">
+      <c r="S9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U9" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -2431,7 +2437,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -2496,7 +2502,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -2561,7 +2567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -3341,7 +3347,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>59</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>60</v>
       </c>
@@ -3601,7 +3607,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>61</v>
       </c>
@@ -3666,7 +3672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
@@ -3796,7 +3802,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>64</v>
       </c>
@@ -3861,7 +3867,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>65</v>
       </c>
@@ -3926,7 +3932,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>66</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -4056,7 +4062,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>68</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>70</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -4316,7 +4322,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -4381,7 +4387,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
@@ -4511,7 +4517,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
@@ -4576,12 +4582,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>95</v>
       </c>
@@ -4589,12 +4595,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -4602,7 +4608,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
@@ -4611,142 +4617,142 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65" s="18">
         <v>9681064</v>
       </c>
-      <c r="C65" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="21">
+      <c r="C65" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="18">
         <v>10137697</v>
       </c>
-      <c r="E65" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F65" s="21">
+      <c r="E65" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="18">
         <v>11193171</v>
       </c>
-      <c r="G65" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H65" s="21">
+      <c r="G65" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" s="18">
         <v>12101105</v>
       </c>
-      <c r="I65" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J65" s="21">
+      <c r="I65" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" s="18">
         <v>12765078</v>
       </c>
-      <c r="K65" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="L65" s="21">
+      <c r="K65" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="L65" s="18">
         <v>13098746</v>
       </c>
-      <c r="M65" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="N65" s="21">
+      <c r="M65" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="N65" s="18">
         <v>13321929</v>
       </c>
-      <c r="O65" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="P65" s="21">
+      <c r="O65" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P65" s="18">
         <v>10190545</v>
       </c>
-      <c r="Q65" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="R65" s="21">
+      <c r="Q65" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="R65" s="18">
         <v>9881857</v>
       </c>
-      <c r="S65" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T65" s="21">
+      <c r="S65" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="T65" s="18">
         <v>9360706</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="16">
         <f>D65-(D11-B11)</f>
         <v>7525524</v>
       </c>
-      <c r="E66" s="19" t="e">
+      <c r="E66" s="16" t="e">
         <f t="shared" ref="E66:K66" si="0">E65-(E11-C11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66" s="16">
         <f t="shared" si="0"/>
         <v>9858918</v>
       </c>
-      <c r="G66" s="19" t="e">
+      <c r="G66" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H66" s="19">
+      <c r="H66" s="16">
         <f t="shared" si="0"/>
         <v>6375472</v>
       </c>
-      <c r="I66" s="19" t="e">
+      <c r="I66" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J66" s="19">
+      <c r="J66" s="16">
         <f t="shared" si="0"/>
         <v>9270511</v>
       </c>
-      <c r="K66" s="19" t="e">
+      <c r="K66" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L66" s="19">
+      <c r="L66" s="16">
         <f>L65-(L11-J11)</f>
         <v>7560595</v>
       </c>
-      <c r="M66" s="19" t="e">
+      <c r="M66" s="16" t="e">
         <f>M65-(M11-K11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N66" s="19">
+      <c r="N66" s="16">
         <f t="shared" ref="N66" si="1">N65-(N11-L11)</f>
         <v>8881619</v>
       </c>
-      <c r="O66" s="19" t="e">
+      <c r="O66" s="16" t="e">
         <f t="shared" ref="O66" si="2">O65-(O11-M11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P66" s="19">
+      <c r="P66" s="16">
         <f t="shared" ref="P66" si="3">P65-(P11-N11)</f>
         <v>7384751</v>
       </c>
-      <c r="Q66" s="19" t="e">
+      <c r="Q66" s="16" t="e">
         <f t="shared" ref="Q66" si="4">Q65-(Q11-O11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R66" s="19">
+      <c r="R66" s="16">
         <f t="shared" ref="R66" si="5">R65-(R11-P11)</f>
         <v>7291023</v>
       </c>
-      <c r="S66" s="19" t="e">
+      <c r="S66" s="16" t="e">
         <f t="shared" ref="S66" si="6">S65-(S11-Q11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T66" s="19">
+      <c r="T66" s="16">
         <f t="shared" ref="T66" si="7">T65-(T11-R11)</f>
         <v>6995357</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="19" t="s">
         <v>105</v>
       </c>
       <c r="B67">
@@ -4827,7 +4833,7 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D68">
@@ -4900,145 +4906,145 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
+      <c r="A69" s="19"/>
     </row>
     <row r="70" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="18">
         <v>180642</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="21">
+      <c r="C70" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="18">
         <v>188406</v>
       </c>
-      <c r="E70" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F70" s="21">
+      <c r="E70" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="18">
         <v>206653</v>
       </c>
-      <c r="G70" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H70" s="21">
+      <c r="G70" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="18">
         <v>222469</v>
       </c>
-      <c r="I70" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J70" s="21">
+      <c r="I70" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J70" s="18">
         <v>221473</v>
       </c>
-      <c r="K70" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="L70" s="21">
+      <c r="K70" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="L70" s="18">
         <v>218475</v>
       </c>
-      <c r="M70" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="N70" s="21">
+      <c r="M70" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="N70" s="18">
         <v>225620</v>
       </c>
-      <c r="O70" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="P70" s="21">
+      <c r="O70" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P70" s="18">
         <v>198979</v>
       </c>
-      <c r="Q70" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="R70" s="21">
+      <c r="Q70" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="R70" s="18">
         <v>186592</v>
       </c>
-      <c r="S70" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T70" s="21">
+      <c r="S70" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="T70" s="18">
         <v>149285</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="16">
         <f>D70-(D15-B15)</f>
         <v>147220</v>
       </c>
-      <c r="E71" s="19" t="e">
+      <c r="E71" s="16" t="e">
         <f t="shared" ref="E71:T71" si="10">E70-(E15-C15)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="16">
         <f t="shared" si="10"/>
         <v>135037</v>
       </c>
-      <c r="G71" s="19" t="e">
+      <c r="G71" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H71" s="16">
         <f t="shared" si="10"/>
         <v>147758</v>
       </c>
-      <c r="I71" s="19" t="e">
+      <c r="I71" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J71" s="19">
+      <c r="J71" s="16">
         <f t="shared" si="10"/>
         <v>156955</v>
       </c>
-      <c r="K71" s="19" t="e">
+      <c r="K71" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L71" s="19">
+      <c r="L71" s="16">
         <f t="shared" si="10"/>
         <v>154045</v>
       </c>
-      <c r="M71" s="19" t="e">
+      <c r="M71" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N71" s="19">
+      <c r="N71" s="16">
         <f t="shared" si="10"/>
         <v>168361</v>
       </c>
-      <c r="O71" s="19" t="e">
+      <c r="O71" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P71" s="19">
+      <c r="P71" s="16">
         <f t="shared" si="10"/>
         <v>127108</v>
       </c>
-      <c r="Q71" s="19" t="e">
+      <c r="Q71" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R71" s="19">
+      <c r="R71" s="16">
         <f t="shared" si="10"/>
         <v>122651</v>
       </c>
-      <c r="S71" s="19" t="e">
+      <c r="S71" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T71" s="19">
+      <c r="T71" s="16">
         <f t="shared" si="10"/>
         <v>135762</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D72">
@@ -5110,18 +5116,226 @@
         <v>4.8467803087099387E-2</v>
       </c>
     </row>
+    <row r="74" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="18">
+        <v>150018</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="18">
+        <v>149963</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="18">
+        <v>158577</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="18">
+        <v>160404</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="18">
+        <v>167692</v>
+      </c>
+      <c r="K74" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="L74" s="18">
+        <v>158837</v>
+      </c>
+      <c r="M74" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="N74" s="18">
+        <v>148682</v>
+      </c>
+      <c r="O74" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P74" s="18">
+        <v>157503</v>
+      </c>
+      <c r="Q74" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="18">
+        <v>182618</v>
+      </c>
+      <c r="S74" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="T74" s="18">
+        <v>180864</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="16">
+        <f>D74-(D41-B41)</f>
+        <v>94785</v>
+      </c>
+      <c r="E75" s="16" t="e">
+        <f t="shared" ref="E75:T75" si="12">E74-(E41-C41)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" s="16">
+        <f t="shared" si="12"/>
+        <v>104020</v>
+      </c>
+      <c r="G75" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H75" s="16">
+        <f t="shared" si="12"/>
+        <v>107494</v>
+      </c>
+      <c r="I75" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J75" s="16">
+        <f t="shared" si="12"/>
+        <v>111206</v>
+      </c>
+      <c r="K75" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L75" s="16">
+        <f t="shared" si="12"/>
+        <v>126284</v>
+      </c>
+      <c r="M75" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N75" s="16">
+        <f t="shared" si="12"/>
+        <v>99423</v>
+      </c>
+      <c r="O75" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P75" s="16">
+        <f t="shared" si="12"/>
+        <v>23828</v>
+      </c>
+      <c r="Q75" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R75" s="16">
+        <f t="shared" si="12"/>
+        <v>114496</v>
+      </c>
+      <c r="S75" s="16" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T75" s="16">
+        <f t="shared" si="12"/>
+        <v>165141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76">
+        <f>D75/D41</f>
+        <v>3.7091416243680647E-2</v>
+      </c>
+      <c r="E76" t="e">
+        <f t="shared" ref="E76:T76" si="13">E75/E41</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="13"/>
+        <v>3.9854406130268201E-2</v>
+      </c>
+      <c r="G76" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="13"/>
+        <v>4.0367117176322145E-2</v>
+      </c>
+      <c r="I76" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="13"/>
+        <v>4.0893639617032608E-2</v>
+      </c>
+      <c r="K76" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="13"/>
+        <v>4.5888931807965917E-2</v>
+      </c>
+      <c r="M76" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="13"/>
+        <v>3.5492901633866529E-2</v>
+      </c>
+      <c r="O76" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="13"/>
+        <v>8.1188926441019965E-3</v>
+      </c>
+      <c r="Q76" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="13"/>
+        <v>3.8127142645450141E-2</v>
+      </c>
+      <c r="S76" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="13"/>
+        <v>5.4705491849547226E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5132,7 +5346,7 @@
   <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B53" sqref="B53:T53"/>
@@ -5163,12 +5377,12 @@
     <col min="21" max="21" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -5176,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -5184,8 +5398,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -5193,7 +5407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -5201,7 +5415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -5209,73 +5423,73 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="18" t="s">
+      <c r="I9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="18" t="s">
+      <c r="K9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="18" t="s">
+      <c r="M9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" s="18" t="s">
+      <c r="O9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9" s="18" t="s">
+      <c r="Q9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9" s="18" t="s">
+      <c r="S9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U9" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -5340,7 +5554,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -5405,7 +5619,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -5470,7 +5684,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -5535,7 +5749,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -5600,7 +5814,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -5665,7 +5879,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -5730,7 +5944,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -5795,7 +6009,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -5860,7 +6074,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -5925,7 +6139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -5990,7 +6204,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -6055,7 +6269,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -6120,7 +6334,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -6185,7 +6399,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -6250,7 +6464,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -6315,7 +6529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -6380,7 +6594,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -6445,7 +6659,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -6510,7 +6724,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -6575,7 +6789,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -6640,7 +6854,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -6705,7 +6919,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -6770,7 +6984,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -6835,7 +7049,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
@@ -6900,7 +7114,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -6965,7 +7179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>59</v>
       </c>
@@ -7030,7 +7244,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>60</v>
       </c>
@@ -7095,7 +7309,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>61</v>
       </c>
@@ -7160,7 +7374,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
@@ -7225,7 +7439,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
@@ -7290,7 +7504,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>64</v>
       </c>
@@ -7355,7 +7569,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>65</v>
       </c>
@@ -7420,7 +7634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>66</v>
       </c>
@@ -7485,7 +7699,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -7550,7 +7764,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>68</v>
       </c>
@@ -7615,7 +7829,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
@@ -7680,7 +7894,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>70</v>
       </c>
@@ -7745,7 +7959,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -7810,7 +8024,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -7875,7 +8089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -7940,7 +8154,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
@@ -8005,7 +8219,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
@@ -8071,89 +8285,89 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="19">
+      <c r="B53" s="16">
         <f>SUM(B11:B52)</f>
         <v>25873157</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="16">
         <f t="shared" ref="C53:T53" si="0">SUM(C11:C52)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="16">
         <f t="shared" si="0"/>
         <v>24447668</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="16">
         <f t="shared" si="0"/>
         <v>30517364</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="16">
         <f t="shared" si="0"/>
         <v>32948913</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="16">
         <f t="shared" si="0"/>
         <v>35388584</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="16">
         <f t="shared" si="0"/>
         <v>36088355</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N53" s="16">
         <f t="shared" si="0"/>
         <v>31673320</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P53" s="19">
+      <c r="P53" s="16">
         <f t="shared" si="0"/>
         <v>29167066</v>
       </c>
-      <c r="Q53" s="19">
+      <c r="Q53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R53" s="19">
+      <c r="R53" s="16">
         <f t="shared" si="0"/>
         <v>30098492</v>
       </c>
-      <c r="S53" s="19">
+      <c r="S53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T53" s="19">
+      <c r="T53" s="16">
         <f t="shared" si="0"/>
         <v>27901869</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>95</v>
       </c>
@@ -8161,12 +8375,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -8176,16 +8390,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8196,7 +8410,7 @@
   <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B53" sqref="B53:T53"/>
@@ -8227,12 +8441,12 @@
     <col min="21" max="21" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -8240,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -8248,8 +8462,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -8257,7 +8471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -8265,7 +8479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -8273,73 +8487,73 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="18" t="s">
+      <c r="I9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="18" t="s">
+      <c r="K9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="18" t="s">
+      <c r="M9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" s="18" t="s">
+      <c r="O9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9" s="18" t="s">
+      <c r="Q9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9" s="18" t="s">
+      <c r="S9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U9" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -8404,7 +8618,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -8469,7 +8683,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -8534,7 +8748,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -8599,7 +8813,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -8664,7 +8878,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -8729,7 +8943,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -8794,7 +9008,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -8859,7 +9073,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -8924,7 +9138,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -8989,7 +9203,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -9054,7 +9268,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -9119,7 +9333,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -9184,7 +9398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -9249,7 +9463,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -9314,7 +9528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -9379,7 +9593,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -9444,7 +9658,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -9509,7 +9723,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -9574,7 +9788,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -9639,7 +9853,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -9704,7 +9918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -9769,7 +9983,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -9834,7 +10048,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -9899,7 +10113,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
@@ -9964,7 +10178,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -10029,7 +10243,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>59</v>
       </c>
@@ -10094,7 +10308,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>60</v>
       </c>
@@ -10159,7 +10373,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>61</v>
       </c>
@@ -10224,7 +10438,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
@@ -10289,7 +10503,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
@@ -10354,7 +10568,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>64</v>
       </c>
@@ -10419,7 +10633,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>65</v>
       </c>
@@ -10484,7 +10698,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>66</v>
       </c>
@@ -10549,7 +10763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -10614,7 +10828,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>68</v>
       </c>
@@ -10679,7 +10893,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
@@ -10744,7 +10958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>70</v>
       </c>
@@ -10809,7 +11023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -10874,7 +11088,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -10939,7 +11153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -11004,7 +11218,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
@@ -11069,7 +11283,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
@@ -11135,89 +11349,89 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="19">
+      <c r="B53" s="16">
         <f>SUM(B11:B52)</f>
         <v>38023303</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="16">
         <f t="shared" ref="C53:T53" si="0">SUM(C11:C52)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="16">
         <f t="shared" si="0"/>
         <v>36573601</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="16">
         <f t="shared" si="0"/>
         <v>41260158</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="16">
         <f t="shared" si="0"/>
         <v>40412457</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="16">
         <f t="shared" si="0"/>
         <v>40474591</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="16">
         <f t="shared" si="0"/>
         <v>42938448</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N53" s="16">
         <f t="shared" si="0"/>
         <v>38592638</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P53" s="19">
+      <c r="P53" s="16">
         <f t="shared" si="0"/>
         <v>40600258</v>
       </c>
-      <c r="Q53" s="19">
+      <c r="Q53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R53" s="19">
+      <c r="R53" s="16">
         <f t="shared" si="0"/>
         <v>48402644</v>
       </c>
-      <c r="S53" s="19">
+      <c r="S53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T53" s="19">
+      <c r="T53" s="16">
         <f t="shared" si="0"/>
         <v>46250166</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>95</v>
       </c>
@@ -11225,12 +11439,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -11240,16 +11454,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11291,12 +11505,12 @@
     <col min="21" max="21" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -11304,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -11312,8 +11526,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -11321,7 +11535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -11329,7 +11543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -11337,73 +11551,73 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="18" t="s">
+      <c r="I9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="18" t="s">
+      <c r="K9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="18" t="s">
+      <c r="M9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" s="18" t="s">
+      <c r="O9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9" s="18" t="s">
+      <c r="Q9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9" s="18" t="s">
+      <c r="S9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U9" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -11468,7 +11682,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -11533,7 +11747,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -11598,7 +11812,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -11663,7 +11877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -11728,7 +11942,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -11793,7 +12007,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -11858,7 +12072,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -11923,7 +12137,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -11988,7 +12202,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -12053,7 +12267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -12118,7 +12332,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -12183,7 +12397,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -12248,7 +12462,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -12313,7 +12527,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -12378,7 +12592,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -12443,7 +12657,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -12508,7 +12722,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -12573,7 +12787,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -12638,7 +12852,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -12703,7 +12917,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -12768,7 +12982,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -12833,7 +13047,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -12898,7 +13112,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -12963,7 +13177,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
@@ -13028,7 +13242,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -13093,7 +13307,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>59</v>
       </c>
@@ -13158,7 +13372,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>60</v>
       </c>
@@ -13223,7 +13437,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>61</v>
       </c>
@@ -13288,7 +13502,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
@@ -13353,7 +13567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
@@ -13418,7 +13632,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>64</v>
       </c>
@@ -13483,7 +13697,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>65</v>
       </c>
@@ -13548,7 +13762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>66</v>
       </c>
@@ -13613,7 +13827,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -13678,7 +13892,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>68</v>
       </c>
@@ -13743,7 +13957,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
@@ -13808,7 +14022,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>70</v>
       </c>
@@ -13873,7 +14087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -13938,7 +14152,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -14003,7 +14217,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -14068,7 +14282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
@@ -14133,7 +14347,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
@@ -14199,89 +14413,89 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="19">
+      <c r="B53" s="16">
         <f>SUM(B11:B52)</f>
         <v>60957608</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="16">
         <f t="shared" ref="C53:T53" si="0">SUM(C11:C52)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="16">
         <f t="shared" si="0"/>
         <v>61356126</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="16">
         <f t="shared" si="0"/>
         <v>69707303</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="16">
         <f t="shared" si="0"/>
         <v>68290435</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="16">
         <f t="shared" si="0"/>
         <v>65922785</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="16">
         <f t="shared" si="0"/>
         <v>63596882</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N53" s="16">
         <f t="shared" si="0"/>
         <v>53550556</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P53" s="19">
+      <c r="P53" s="16">
         <f t="shared" si="0"/>
         <v>52831639</v>
       </c>
-      <c r="Q53" s="19">
+      <c r="Q53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R53" s="19">
+      <c r="R53" s="16">
         <f t="shared" si="0"/>
         <v>64452708</v>
       </c>
-      <c r="S53" s="19">
+      <c r="S53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T53" s="19">
+      <c r="T53" s="16">
         <f t="shared" si="0"/>
         <v>66764940</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>95</v>
       </c>
@@ -14289,12 +14503,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -14304,16 +14518,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14355,12 +14569,12 @@
     <col min="21" max="21" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -14368,7 +14582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -14376,8 +14590,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -14385,7 +14599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -14393,7 +14607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -14401,73 +14615,73 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="18" t="s">
+      <c r="I9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="18" t="s">
+      <c r="K9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="18" t="s">
+      <c r="M9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" s="18" t="s">
+      <c r="O9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9" s="18" t="s">
+      <c r="Q9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9" s="18" t="s">
+      <c r="S9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U9" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -14532,7 +14746,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -14597,7 +14811,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -14662,7 +14876,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -14727,7 +14941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -14792,7 +15006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -14857,7 +15071,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -14922,7 +15136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -14987,7 +15201,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -15052,7 +15266,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -15117,7 +15331,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -15182,7 +15396,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -15247,7 +15461,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -15312,7 +15526,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -15377,7 +15591,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -15442,7 +15656,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -15507,7 +15721,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -15572,7 +15786,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -15637,7 +15851,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -15702,7 +15916,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -15767,7 +15981,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -15832,7 +16046,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -15897,7 +16111,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -15962,7 +16176,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -16027,7 +16241,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
@@ -16092,7 +16306,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -16157,7 +16371,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>59</v>
       </c>
@@ -16222,7 +16436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>60</v>
       </c>
@@ -16287,7 +16501,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>61</v>
       </c>
@@ -16352,7 +16566,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
@@ -16417,7 +16631,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
@@ -16482,7 +16696,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>64</v>
       </c>
@@ -16547,7 +16761,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>65</v>
       </c>
@@ -16612,7 +16826,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>66</v>
       </c>
@@ -16677,7 +16891,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -16742,7 +16956,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>68</v>
       </c>
@@ -16807,7 +17021,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
@@ -16872,7 +17086,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>70</v>
       </c>
@@ -16937,7 +17151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -17002,7 +17216,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -17067,7 +17281,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -17132,7 +17346,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
@@ -17197,7 +17411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
@@ -17263,89 +17477,89 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="20">
+      <c r="B53" s="17">
         <f>SUM(B11:B52)</f>
         <v>78631884</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="17">
         <f t="shared" ref="C53:T53" si="0">SUM(C11:C52)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="17">
         <f t="shared" si="0"/>
         <v>90565885</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="17">
         <f t="shared" si="0"/>
         <v>104240062</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G53" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="17">
         <f t="shared" si="0"/>
         <v>109382004</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="17">
         <f t="shared" si="0"/>
         <v>113371326</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L53" s="20">
+      <c r="L53" s="17">
         <f t="shared" si="0"/>
         <v>115675726</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M53" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N53" s="20">
+      <c r="N53" s="17">
         <f t="shared" si="0"/>
         <v>106280236</v>
       </c>
-      <c r="O53" s="20">
+      <c r="O53" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P53" s="20">
+      <c r="P53" s="17">
         <f t="shared" si="0"/>
         <v>107800093</v>
       </c>
-      <c r="Q53" s="20">
+      <c r="Q53" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R53" s="20">
+      <c r="R53" s="17">
         <f t="shared" si="0"/>
         <v>119498834</v>
       </c>
-      <c r="S53" s="20">
+      <c r="S53" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T53" s="20">
+      <c r="T53" s="17">
         <f t="shared" si="0"/>
         <v>121669071</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>95</v>
       </c>
@@ -17353,12 +17567,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -17368,16 +17582,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17388,7 +17602,7 @@
   <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
@@ -17419,12 +17633,12 @@
     <col min="21" max="21" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -17432,7 +17646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -17440,8 +17654,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -17449,7 +17663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -17457,7 +17671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -17465,73 +17679,73 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="18" t="s">
+      <c r="I9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="18" t="s">
+      <c r="K9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="18" t="s">
+      <c r="M9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" s="18" t="s">
+      <c r="O9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9" s="18" t="s">
+      <c r="Q9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="S9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9" s="18" t="s">
+      <c r="S9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U9" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -17596,7 +17810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -17661,7 +17875,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -17726,7 +17940,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -17791,7 +18005,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -17856,7 +18070,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -17921,7 +18135,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -17986,7 +18200,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -18051,7 +18265,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -18116,7 +18330,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -18181,7 +18395,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -18246,7 +18460,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -18311,7 +18525,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -18376,7 +18590,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -18441,7 +18655,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -18506,7 +18720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -18571,7 +18785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -18636,7 +18850,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -18701,7 +18915,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -18766,7 +18980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -18831,7 +19045,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -18896,7 +19110,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -18961,7 +19175,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -19026,7 +19240,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -19091,7 +19305,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
@@ -19156,7 +19370,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -19221,7 +19435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>59</v>
       </c>
@@ -19286,7 +19500,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>60</v>
       </c>
@@ -19351,7 +19565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>61</v>
       </c>
@@ -19416,7 +19630,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
@@ -19481,7 +19695,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
@@ -19546,7 +19760,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>64</v>
       </c>
@@ -19611,7 +19825,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>65</v>
       </c>
@@ -19676,7 +19890,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>66</v>
       </c>
@@ -19741,7 +19955,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -19806,7 +20020,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>68</v>
       </c>
@@ -19871,7 +20085,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
@@ -19936,7 +20150,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>70</v>
       </c>
@@ -20001,7 +20215,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -20066,7 +20280,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -20131,7 +20345,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>73</v>
       </c>
@@ -20196,7 +20410,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
@@ -20261,7 +20475,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
@@ -20327,89 +20541,89 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="19">
+      <c r="B53" s="16">
         <f>SUM(B11:B52)</f>
         <v>16141604</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="16">
         <f t="shared" ref="C53:T53" si="0">SUM(C11:C52)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="16">
         <f t="shared" si="0"/>
         <v>20249524</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="16">
         <f t="shared" si="0"/>
         <v>19755313</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="16">
         <f t="shared" si="0"/>
         <v>21779609</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="16">
         <f t="shared" si="0"/>
         <v>23784688</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="16">
         <f t="shared" si="0"/>
         <v>27033495</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N53" s="16">
         <f t="shared" si="0"/>
         <v>28381461</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P53" s="19">
+      <c r="P53" s="16">
         <f t="shared" si="0"/>
         <v>31238324</v>
       </c>
-      <c r="Q53" s="19">
+      <c r="Q53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R53" s="19">
+      <c r="R53" s="16">
         <f t="shared" si="0"/>
         <v>35148570</v>
       </c>
-      <c r="S53" s="19">
+      <c r="S53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T53" s="19">
+      <c r="T53" s="16">
         <f t="shared" si="0"/>
         <v>37585169</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>95</v>
       </c>
@@ -20417,12 +20631,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -20430,7 +20644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
@@ -20440,16 +20654,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
